--- a/thermochron.xlsx
+++ b/thermochron.xlsx
@@ -5,18 +5,42 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tracyyao/Desktop/earth surface processes/thermochronology-report/prac-04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tracyyao/Documents/GitHub/geos2916/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3277D-86A7-EE4D-BE7A-C789C484A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790AD37D-EF5F-CF4A-AF98-0C15E3FC1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
     <sheet name="Wrangled Data" sheetId="2" r:id="rId2"/>
     <sheet name="Denudation Rates" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Denudation Rates'!$A$1:$G$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Wrangled Data'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Wrangled Data'!$P$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Denudation Rates'!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Denudation Rates'!$B$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Denudation Rates'!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Wrangled Data'!$P$2:$P$17</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Wrangled Data'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Wrangled Data'!$P$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Wrangled Data'!$P$2:$P$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Wrangled Data'!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Wrangled Data'!$P$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Wrangled Data'!$P$2:$P$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Denudation Rates'!$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
   <si>
     <t>/* DATA DESCRIPTION:</t>
   </si>
@@ -278,6 +302,9 @@
   </si>
   <si>
     <t>120°C isotherm depth (m)</t>
+  </si>
+  <si>
+    <t>Elevation</t>
   </si>
 </sst>
 </file>
@@ -839,69 +866,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Elevation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> change across Thredbro River Valley</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11264286219557355"/>
+          <c:y val="7.4676137404092818E-2"/>
+          <c:w val="0.84704477372221787"/>
+          <c:h val="0.71890055672470443"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -914,7 +891,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elevation [m a.s.l.]</c:v>
+                  <c:v>Elevation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -946,12 +923,18 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8963163846504211E-2"/>
+                  <c:y val="-3.5439353853505051E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D762B627-E97C-B649-9981-42013A8F20A1}" type="CELLRANGE">
+                    <a:fld id="{43F534A8-8E47-364F-8D37-CC6E5E72C630}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -960,7 +943,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -979,13 +962,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198688830817418E-2"/>
+                  <c:y val="-3.1339283060123742E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C15FCB71-13E6-3847-861E-737627043628}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{0CF1C313-4BD8-0146-94CD-FB4708CD17B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -993,7 +982,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1003,7 +992,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1013,13 +1001,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9399200424992828E-2"/>
+                  <c:y val="3.2206192555952896E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4F4E6B9-35E8-CE44-BF59-387617E587C1}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{BA9ADD90-7D11-EA40-B829-EC88D0BCB57B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1027,7 +1021,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1037,7 +1031,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1047,13 +1040,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.851204688152164E-2"/>
+                  <c:y val="-3.1399537775149505E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E134968-A2FF-0748-9F2A-FDE7B9FB76C4}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{283B6D43-5A1C-2E4C-B615-2512C6534668}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1061,7 +1060,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1071,7 +1070,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1081,13 +1079,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6048123608541156E-2"/>
+                  <c:y val="-3.1062009899646283E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDD50191-DA7B-B741-BC36-B22314B740CE}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{295E0076-83AE-4B4A-9ADA-59D31C9EBE04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1095,7 +1099,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1105,7 +1109,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1115,13 +1118,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6048123608541156E-2"/>
+                  <c:y val="-3.4579791315234761E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F8835E1-8635-654B-9CC7-4493BA56147A}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{C2DCB3BE-01BF-1F47-A9B7-338358A4881A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1129,7 +1138,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1139,7 +1148,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1149,13 +1157,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3194446296111348E-2"/>
+                  <c:y val="-3.1062121787315763E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5BC0EB1-F523-4840-8905-8987170C1336}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{6D2983CD-1AB9-3A4C-8BB8-A6CC6C604385}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1163,7 +1177,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1173,7 +1187,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1183,13 +1196,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6612145257272427E-2"/>
+                  <c:y val="-3.4735273490355982E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58566EFA-42DB-9B48-AAC2-4E5007ADC640}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{731C4040-25CE-D948-B0EB-7FA9BBDD6668}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1197,7 +1216,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1207,7 +1226,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1217,13 +1235,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0296487943812645E-2"/>
+                  <c:y val="3.4763348626024877E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E9C7358-E247-CB4E-9EE0-36DA3FEC7916}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{1197C189-1DE9-BE47-B2D4-C21FD199B1BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1231,7 +1255,52 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.1567307242717538E-2"/>
+                      <c:h val="5.0651673443233729E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-7453-894C-9FFC-AE455B3F1634}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3770353168274024E-2"/>
+                  <c:y val="3.4755916972465321E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{494EF2A5-6A9F-3B41-A459-68D978264D24}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1241,23 +1310,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-7453-894C-9FFC-AE455B3F1634}"/>
+                  <c16:uniqueId val="{00000019-7453-894C-9FFC-AE455B3F1634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="9"/>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6507876308845746E-2"/>
+                  <c:y val="-3.1387451185045968E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A17E561-54AD-F041-A222-A0DE4EA8F85C}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{26F5D168-471E-404B-973F-0B8C8C325102}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1265,7 +1339,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1275,23 +1349,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-7453-894C-9FFC-AE455B3F1634}"/>
+                  <c16:uniqueId val="{0000001A-7453-894C-9FFC-AE455B3F1634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="10"/>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3652207614705939E-2"/>
+                  <c:y val="-3.799422997514533E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26DC325A-475F-6241-8F55-D16023D54919}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{CE986DA3-E8CB-AC40-A9CA-2CBA425B08B2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1299,7 +1378,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1309,23 +1388,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-7453-894C-9FFC-AE455B3F1634}"/>
+                  <c16:uniqueId val="{0000001B-7453-894C-9FFC-AE455B3F1634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="11"/>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5433833513419913E-2"/>
+                  <c:y val="-3.4528175881230611E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5FB290B-E791-E048-ABF9-6FA1ADE25506}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{B51EDFE5-17C3-C848-A34C-4C72D9BC52A7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1333,7 +1417,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1343,23 +1427,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-7453-894C-9FFC-AE455B3F1634}"/>
+                  <c16:uniqueId val="{0000001C-7453-894C-9FFC-AE455B3F1634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="12"/>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0989043134042922E-2"/>
+                  <c:y val="-3.4579757316171605E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91A7EBA1-EDA2-1241-980F-9012F610323B}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{EABC5284-DF94-7F4E-9E5B-9B751ACB5974}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1367,7 +1456,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1377,23 +1466,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-7453-894C-9FFC-AE455B3F1634}"/>
+                  <c16:uniqueId val="{0000001D-7453-894C-9FFC-AE455B3F1634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4994620929642013E-2"/>
+                  <c:y val="-3.799422997514542E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5795765D-D61B-D146-A6CD-1C0F3D2B6BAC}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{133A9EA0-CFE1-F547-BED9-854C952B550D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1401,7 +1495,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1411,23 +1505,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-7453-894C-9FFC-AE455B3F1634}"/>
+                  <c16:uniqueId val="{0000001E-7453-894C-9FFC-AE455B3F1634}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="14"/>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2467623403394355E-2"/>
+                  <c:y val="-3.4498561562166671E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1780C20E-1590-5742-BD79-71097BF7889E}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
+                    <a:fld id="{71B04F8E-52FE-3640-899C-588DBD837573}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1435,7 +1534,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="b"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1445,41 +1544,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-7453-894C-9FFC-AE455B3F1634}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6F363AA4-2B60-2346-8102-614DA802021B}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1501,16 +1565,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -1527,21 +1591,7 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1742,20 +1792,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1763,20 +1799,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Latitude (°)</a:t>
                 </a:r>
               </a:p>
@@ -1795,16 +1834,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1812,7 +1848,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1820,8 +1856,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1833,16 +1869,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1863,20 +1899,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1884,12 +1906,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1897,12 +1916,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Elevation (MASL)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5078493333293599E-2"/>
+              <c:y val="0.27538127277327173"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1916,12 +1949,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1933,7 +1963,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1941,8 +1971,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1954,16 +1984,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2040,881 +2070,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Denudation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> rates along Thredbo array</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10462388537831983"/>
+          <c:y val="7.4676137404092818E-2"/>
+          <c:w val="0.85506370405542431"/>
+          <c:h val="0.71890055672470443"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B7E2BF81-6419-6545-93ED-456E279D9AD4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1A46210C-2976-CC4A-908C-438B894859E2}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FFAF6609-DDAA-1D4B-95C0-F7B019EA65E8}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{041F9B75-9CAA-C140-ABFF-4F4950872E6B}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{57807190-C5D6-2949-B3B7-E36EFEB5D951}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{740B342D-63CB-9B4F-838B-F8890AEFBF9B}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C85D9BAF-21C0-CF4F-A88D-FE2FF963455A}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9D94B37C-FCBE-384D-B645-4E353EAF0FA2}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E2ECEF08-05B7-7C4F-85F1-021220CA2C40}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{72959D19-45DB-B548-8B4A-4E81456407B6}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2D64A6D9-B39D-8B40-9C21-C3160EE0F23E}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C6DB3145-958E-1746-9C5C-9C99263A8EB3}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4E806B48-CE20-5545-8CB5-18F118B6A537}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{60632A22-867D-BB4C-A7A2-835D1D1BB03B}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3F2E5D7D-AE02-0B48-96FD-836747D9B320}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A77F05F0-461A-B749-A5CF-9B1497403825}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-GB"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="b"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-6F67-B648-8F17-DD9B06B007E7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Denudation Rates'!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Denudation Rates'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-36.482999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-36.485999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-36.491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-36.491999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-36.493000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-36.494999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-36.497999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-36.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-36.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-36.503</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-36.506999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.508000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-36.515000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-36.520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-36.53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-36.54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Denudation Rates'!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>-36.482999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-36.485999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-36.491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-36.491999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-36.493000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-36.494999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-36.497999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-36.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-36.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-36.503</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-36.506999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.508000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-36.515000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-36.520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-36.53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-36.54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Wrangled Data'!$F$2:$F$17</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>217</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>200</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>241.1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>226</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>236</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>203</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>211.3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>185</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>185</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>174.9</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>239.2</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>165.1</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>180.1</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>176.3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>195.5</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>153</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-6F67-B648-8F17-DD9B06B007E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+                  <c:v>Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3056,7 +2241,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-6F67-B648-8F17-DD9B06B007E7}"/>
+              <c16:uniqueId val="{00000010-6C13-F146-8D43-20B99349E0F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3080,20 +2265,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3101,20 +2272,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Latitude (°)</a:t>
                 </a:r>
               </a:p>
@@ -3133,16 +2307,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3150,7 +2321,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3158,8 +2329,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3171,16 +2342,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3202,33 +2373,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3236,12 +2404,42 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Denudation rates (m/Ma)</a:t>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Denudation rates (m Ma</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5078493333293599E-2"/>
+              <c:y val="0.27538127277327173"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3254,13 +2452,24 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3271,8 +2480,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3280,8 +2489,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3293,16 +2502,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3311,7 +2520,7 @@
         <c:crossAx val="791322447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4482,13 +3691,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
+      <xdr:colOff>45356</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>120649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>644071</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370744</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -4522,23 +3731,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>662214</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>117022</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271170</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125042</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1879B361-8671-9145-BF4B-D14EB1CB30B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480DC0F9-E96B-D547-BE0E-0C0CFA863283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5057,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="200" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5110,7 +4319,7 @@
         <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5912,8 +5121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3317581F-CEF4-6C45-8018-83B76C669383}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6337,6 +5546,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G17" xr:uid="{3317581F-CEF4-6C45-8018-83B76C669383}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/thermochron.xlsx
+++ b/thermochron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tracyyao/Documents/GitHub/geos2916/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790AD37D-EF5F-CF4A-AF98-0C15E3FC1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417DEC28-7AEE-5D4C-9554-ECB047544655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,25 +21,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Denudation Rates'!$A$1:$G$17</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Wrangled Data'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Wrangled Data'!$P$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Denudation Rates'!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Denudation Rates'!$B$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Denudation Rates'!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Denudation Rates'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Wrangled Data'!$P$2:$P$17</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Denudation Rates'!$G$2:$G$17</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Wrangled Data'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Wrangled Data'!$P$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Wrangled Data'!$P$2:$P$17</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Wrangled Data'!$B$2:$B$17</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Wrangled Data'!$P$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'Wrangled Data'!$P$2:$P$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Denudation Rates'!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>/* DATA DESCRIPTION:</t>
   </si>
@@ -305,6 +293,12 @@
   </si>
   <si>
     <t>Elevation</t>
+  </si>
+  <si>
+    <t>89SM-09</t>
+  </si>
+  <si>
+    <t>89SM-07</t>
   </si>
 </sst>
 </file>
@@ -876,11 +870,11 @@
           <c:x val="0.11264286219557355"/>
           <c:y val="7.4676137404092818E-2"/>
           <c:w val="0.84704477372221787"/>
-          <c:h val="0.71890055672470443"/>
+          <c:h val="0.77476541242627495"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -897,10 +891,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -934,7 +926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43F534A8-8E47-364F-8D37-CC6E5E72C630}" type="CELLRANGE">
+                    <a:fld id="{945EC847-5271-6E49-8680-BB99A96C0219}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -973,7 +965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CF1C313-4BD8-0146-94CD-FB4708CD17B1}" type="CELLRANGE">
+                    <a:fld id="{278DFD09-BCD4-094C-ACFD-F94A8BDDA186}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1003,8 +995,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.9399200424992828E-2"/>
-                  <c:y val="3.2206192555952896E-2"/>
+                  <c:x val="-7.0531878843810611E-2"/>
+                  <c:y val="4.9548168052153521E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1012,7 +1004,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA9ADD90-7D11-EA40-B829-EC88D0BCB57B}" type="CELLRANGE">
+                    <a:fld id="{57FA4D79-5E4F-E840-8456-7C29010F9B6B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1042,8 +1034,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.851204688152164E-2"/>
-                  <c:y val="-3.1399537775149505E-2"/>
+                  <c:x val="-6.5361183010447235E-3"/>
+                  <c:y val="-9.0362019953305187E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1051,7 +1043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{283B6D43-5A1C-2E4C-B615-2512C6534668}" type="CELLRANGE">
+                    <a:fld id="{A6D184EE-8FED-B648-83AD-353AA5851F96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1090,7 +1082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{295E0076-83AE-4B4A-9ADA-59D31C9EBE04}" type="CELLRANGE">
+                    <a:fld id="{2D66AC7A-33D1-344E-8EF9-8132468D4652}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1129,7 +1121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2DCB3BE-01BF-1F47-A9B7-338358A4881A}" type="CELLRANGE">
+                    <a:fld id="{13358A4B-980B-314B-A55E-A0AF07FC921D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1168,7 +1160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D2983CD-1AB9-3A4C-8BB8-A6CC6C604385}" type="CELLRANGE">
+                    <a:fld id="{B5E63EAF-BA09-0F48-A87A-4360D8CB35E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1207,7 +1199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{731C4040-25CE-D948-B0EB-7FA9BBDD6668}" type="CELLRANGE">
+                    <a:fld id="{C450C080-C03B-3548-B4E8-A2E300CDD5FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1237,7 +1229,7 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0296487943812645E-2"/>
+                  <c:x val="-3.2049006348035355E-2"/>
                   <c:y val="3.4763348626024877E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1246,7 +1238,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1197C189-1DE9-BE47-B2D4-C21FD199B1BE}" type="CELLRANGE">
+                    <a:fld id="{56D2308C-940E-724A-850F-302B8D939E00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1266,7 +1258,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="4.1567307242717538E-2"/>
+                      <c:w val="5.8062270434272117E-2"/>
                       <c:h val="5.0651673443233729E-2"/>
                     </c:manualLayout>
                   </c15:layout>
@@ -1282,8 +1274,8 @@
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.3770353168274024E-2"/>
-                  <c:y val="3.4755916972465321E-2"/>
+                  <c:x val="-3.2927027981859737E-2"/>
+                  <c:y val="3.1287542852960509E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1291,7 +1283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{494EF2A5-6A9F-3B41-A459-68D978264D24}" type="CELLRANGE">
+                    <a:fld id="{021EF1BE-FB82-8D43-A373-55E3DF445090}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1330,7 +1322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26F5D168-471E-404B-973F-0B8C8C325102}" type="CELLRANGE">
+                    <a:fld id="{CEDBF275-7ECA-2740-BC34-02392AAAF905}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1369,7 +1361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE986DA3-E8CB-AC40-A9CA-2CBA425B08B2}" type="CELLRANGE">
+                    <a:fld id="{FAFA2AC0-ADA2-1B40-BDBD-8903BCC2B338}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1408,7 +1400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B51EDFE5-17C3-C848-A34C-4C72D9BC52A7}" type="CELLRANGE">
+                    <a:fld id="{41B7CDDA-EEA2-3A4A-923D-DD74F110A204}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1447,7 +1439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EABC5284-DF94-7F4E-9E5B-9B751ACB5974}" type="CELLRANGE">
+                    <a:fld id="{166D235C-D85C-F847-BA4C-4694B34943E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1486,7 +1478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{133A9EA0-CFE1-F547-BED9-854C952B550D}" type="CELLRANGE">
+                    <a:fld id="{43706679-5320-6248-81B1-B40094A70365}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1525,7 +1517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71B04F8E-52FE-3640-899C-588DBD837573}" type="CELLRANGE">
+                    <a:fld id="{1FF6C955-F180-5540-85CD-8406AF43D308}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1595,7 +1587,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'Wrangled Data'!$B$2:$B$17</c:f>
               <c:numCache>
@@ -1608,10 +1600,10 @@
                   <c:v>-36.485999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-36.491999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-36.491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-36.491999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-36.493000000000002</c:v>
@@ -1626,10 +1618,10 @@
                   <c:v>-36.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>-36.503</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-36.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-36.503</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-36.506999999999998</c:v>
@@ -1651,8 +1643,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Wrangled Data'!$P$2:$P$17</c:f>
               <c:numCache>
@@ -1665,10 +1657,10 @@
                   <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1930</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1835</c:v>
@@ -1708,8 +1700,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
@@ -1723,10 +1715,10 @@
                     <c:v>200</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>241.1</c:v>
+                    <c:v>226</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>226</c:v>
+                    <c:v>241.1</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>236</c:v>
@@ -1741,10 +1733,10 @@
                     <c:v>185</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>185</c:v>
+                    <c:v>174.9</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>174.9</c:v>
+                    <c:v>185</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>239.2</c:v>
@@ -1769,6 +1761,1253 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7453-894C-9FFC-AE455B3F1634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="791322447"/>
+        <c:axId val="915282575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="791322447"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:min val="-36.54"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Latitude (°)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915282575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="915282575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Elevation (MASL)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5078493333293599E-2"/>
+              <c:y val="0.27538127277327173"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791322447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11264286219557355"/>
+          <c:y val="7.4676137404092818E-2"/>
+          <c:w val="0.84704477372221787"/>
+          <c:h val="0.69794684877791247"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Wrangled Data'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elevation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9698795910981054E-3"/>
+                  <c:y val="-3.5439353853505051E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ACC554C9-3E82-B846-A246-EAE890793837}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6198688830817418E-2"/>
+                  <c:y val="-3.1339283060123742E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{53EB2BD6-4507-744B-B922-579E97BFC2D0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.923863983370537E-2"/>
+                  <c:y val="-3.7706283435559887E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2A067269-06DC-E540-B572-0B8E91D1F415}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.851204688152164E-2"/>
+                  <c:y val="-3.1399537775149505E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A8619FA8-CDA4-B846-A87A-BF43CC5F1220}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6048123608541156E-2"/>
+                  <c:y val="-3.1062009899646283E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{692E1272-C341-414C-842A-279AD1B57366}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6048123608541156E-2"/>
+                  <c:y val="-3.4579791315234761E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ED05AED2-1FCA-1547-B092-316DCD277D39}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3194446296111348E-2"/>
+                  <c:y val="-3.1062121787315763E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB46A15E-3D1D-484A-86C2-F07015D2121C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6612145257272427E-2"/>
+                  <c:y val="-3.4735273490355982E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BEB330C2-F47A-9D4B-A133-0094C44F16D3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2049006348035355E-2"/>
+                  <c:y val="3.4763348626024877E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28EA65A0-025C-914F-B32E-CE3193CC68EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.8062270434272117E-2"/>
+                      <c:h val="5.0651673443233729E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3770353168274024E-2"/>
+                  <c:y val="3.4755916972465321E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE70BF6E-F40F-414C-A5A5-E80C176128D2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6507876308845746E-2"/>
+                  <c:y val="-3.1387451185045968E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5242C982-C8E6-FC44-827C-53798673723A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3652207614705939E-2"/>
+                  <c:y val="-3.799422997514533E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9CF118B4-61AA-0A42-9F50-0CE85207A55C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5433833513419913E-2"/>
+                  <c:y val="-3.4528175881230611E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ED1D4BDC-5F59-2048-A7DA-19CB81E1B0D2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0989043134042922E-2"/>
+                  <c:y val="-3.4579757316171605E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F6A15A87-A13B-7E4C-AA41-096CE7E31F10}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4994620929642013E-2"/>
+                  <c:y val="-3.799422997514542E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1299E179-F569-F64A-A389-832491545FE6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3037549636418108E-3"/>
+                  <c:y val="-3.799419119938087E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{99284270-FFEF-6F40-AD85-E07B4F6145CB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-CF79-A941-B1FC-C8E8D13BA990}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Wrangled Data'!$C$2:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8822-06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8822-07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8822-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8822-09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8822-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8822-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8822-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8822-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8822-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89SM-07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89SM-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89SM-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89SM-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89SM-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89SM-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89SM-09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Wrangled Data'!$P$2:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>('Wrangled Data'!$F$2:$F$17,'Wrangled Data'!$C$2:$C$17)</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="32"/>
+                  <c:pt idx="0">
+                    <c:v>217</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>226</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>241.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>236</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>203</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>211.3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>185</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>174.9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>185</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>239.2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>165.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>180.1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>176.3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>195.5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>8822-06</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>8822-07</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>8822-08</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8822-09</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>8822-10</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>8822-12</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>8822-13</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>8822-15</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>8822-14</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>89SM-07</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>89SM-16</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>89SM-15</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>89SM-14</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>89SM-13</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>89SM-12</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>89SM-09</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-CF79-A941-B1FC-C8E8D13BA990}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1816,7 +3055,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Latitude (°)</a:t>
+                  <a:t>Sampling point</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2001,7 +3240,7 @@
         </c:txPr>
         <c:crossAx val="791322447"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
@@ -2056,7 +3295,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2080,11 +3319,11 @@
           <c:x val="0.10462388537831983"/>
           <c:y val="7.4676137404092818E-2"/>
           <c:w val="0.85506370405542431"/>
-          <c:h val="0.71890055672470443"/>
+          <c:h val="0.77089136813342618"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2101,10 +3340,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2124,64 +3361,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3225176524547933E-2"/>
+                  <c:y val="-8.049733236647709E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Denudation Rates'!$B$2:$B$17</c:f>
+              <c:f>'Denudation Rates'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-36.482999999999997</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-36.485999999999997</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-36.491</c:v>
+                  <c:v>241.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-36.491999999999997</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-36.493000000000002</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-36.494999999999997</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36.497999999999998</c:v>
+                  <c:v>211.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-36.5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-36.503</c:v>
+                  <c:v>174.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-36.506999999999998</c:v>
+                  <c:v>239.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.508000000000003</c:v>
+                  <c:v>165.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-36.515000000000001</c:v>
+                  <c:v>180.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-36.520000000000003</c:v>
+                  <c:v>176.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-36.53</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-36.54</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'Denudation Rates'!$G$2:$G$17</c:f>
               <c:numCache>
@@ -2237,7 +3526,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2253,15 +3542,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="791322447"/>
         <c:axId val="915282575"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="791322447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2289,7 +3578,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Latitude (°)</a:t>
+                  <a:t>Age (Ma)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2359,11 +3648,10 @@
         </c:txPr>
         <c:crossAx val="915282575"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="915282575"/>
         <c:scaling>
@@ -2519,7 +3807,7 @@
         </c:txPr>
         <c:crossAx val="791322447"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
@@ -2654,6 +3942,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3171,6 +4499,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3724,6 +5568,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>325388</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190672</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11893040-57BF-834A-AA99-161ECD9387B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3737,8 +5619,8 @@
       <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271170</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>650240</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>125042</xdr:rowOff>
     </xdr:to>
@@ -4266,8 +6148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="200" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4418,13 +6300,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>148.28700000000001</v>
+        <v>148.27799999999999</v>
       </c>
       <c r="B4">
-        <v>-36.491</v>
+        <v>-36.491999999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -4433,22 +6315,22 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>241.1</v>
+        <v>226</v>
       </c>
       <c r="G4">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>14</v>
       </c>
       <c r="I4">
-        <v>12.87</v>
+        <v>12.85</v>
       </c>
       <c r="J4">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
@@ -4463,18 +6345,18 @@
         <v>59</v>
       </c>
       <c r="P4">
-        <v>1930</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>148.27799999999999</v>
+        <v>148.28700000000001</v>
       </c>
       <c r="B5">
-        <v>-36.491999999999997</v>
+        <v>-36.491</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -4483,22 +6365,22 @@
         <v>62</v>
       </c>
       <c r="F5">
-        <v>226</v>
+        <v>241.1</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="H5">
         <v>14</v>
       </c>
       <c r="I5">
-        <v>12.85</v>
+        <v>12.87</v>
       </c>
       <c r="J5">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
         <v>57</v>
@@ -4513,7 +6395,7 @@
         <v>59</v>
       </c>
       <c r="P5">
-        <v>2000</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4718,13 +6600,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>148.32</v>
+        <v>148.30699999999999</v>
       </c>
       <c r="B10">
-        <v>-36.5</v>
+        <v>-36.503</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -4733,16 +6615,25 @@
         <v>62</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>174.9</v>
       </c>
       <c r="G10">
+        <v>7.9</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
       <c r="I10">
-        <v>12.26</v>
+        <v>12.41</v>
       </c>
       <c r="J10">
-        <v>1.64</v>
+        <v>1.45</v>
+      </c>
+      <c r="K10">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
       </c>
       <c r="M10" t="s">
         <v>58</v>
@@ -4759,13 +6650,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>148.30699999999999</v>
+        <v>148.32</v>
       </c>
       <c r="B11">
-        <v>-36.503</v>
+        <v>-36.5</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
@@ -4774,25 +6665,16 @@
         <v>62</v>
       </c>
       <c r="F11">
-        <v>174.9</v>
+        <v>185</v>
       </c>
       <c r="G11">
-        <v>7.9</v>
-      </c>
-      <c r="H11">
         <v>8</v>
       </c>
       <c r="I11">
-        <v>12.41</v>
+        <v>12.26</v>
       </c>
       <c r="J11">
-        <v>1.45</v>
-      </c>
-      <c r="K11">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>57</v>
+        <v>1.64</v>
       </c>
       <c r="M11" t="s">
         <v>58</v>
@@ -5065,7 +6947,7 @@
         <v>-36.54</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
@@ -5122,17 +7004,19 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
